--- a/src/assets/EmailTestFile.xlsx
+++ b/src/assets/EmailTestFile.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\SoftwareEngineering\PMAP2020\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0C91B9-AE64-4D64-B0B2-FA189B7A9F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F2753-A4DD-4DE6-A56A-CC2E98181897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{436B8666-0531-410D-9D01-FF5B18529AD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{436B8666-0531-410D-9D01-FF5B18529AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>JohnDoe1@gmail.com</t>
   </si>
@@ -90,6 +91,12 @@
   </si>
   <si>
     <t>JohnDoeSTRAY@gmail.com</t>
+  </si>
+  <si>
+    <t>hwere</t>
+  </si>
+  <si>
+    <t>wtf</t>
   </si>
 </sst>
 </file>
@@ -454,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1CDDA-2ECD-4146-9950-DBB5A2CD0BB8}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +561,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAECE5-2756-41BA-8EE3-1F5669478125}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="testEmail12@gmail.com" xr:uid="{E8002FD7-B413-4F89-9F0F-A565BF841529}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>